--- a/TestData/T1894_CapIQCompanies_CapIQCompaniesDetailPage_AddSalesforceCompany.xlsx
+++ b/TestData/T1894_CapIQCompanies_CapIQCompaniesDetailPage_AddSalesforceCompany.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D12F212-AFA4-4BBA-BB5B-9A414B198DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -63,16 +64,16 @@
     <t>PotentialMatchText</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
-  </si>
-  <si>
     <t>CapIQ Company Detail</t>
+  </si>
+  <si>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,8 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -393,26 +393,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -421,44 +421,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -468,8 +468,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
